--- a/5/1/1/2/Agregados promedios 1965 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Agregados promedios 1965 a 2021 - Trimestral.xlsx
@@ -13692,19 +13692,19 @@
         <v>9656</v>
       </c>
       <c r="O224">
-        <v>22130</v>
+        <v>21906</v>
       </c>
       <c r="P224">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="Q224">
-        <v>15868</v>
+        <v>15544</v>
       </c>
       <c r="R224">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S224">
-        <v>164145</v>
+        <v>164240</v>
       </c>
       <c r="T224">
         <v>24538</v>
@@ -13734,25 +13734,25 @@
         <v>226</v>
       </c>
       <c r="AC224">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AD224">
-        <v>31251</v>
+        <v>31079</v>
       </c>
       <c r="AE224">
-        <v>26077</v>
+        <v>25923</v>
       </c>
       <c r="AF224">
-        <v>3292</v>
+        <v>3440</v>
       </c>
       <c r="AG224">
-        <v>18899</v>
+        <v>18665</v>
       </c>
       <c r="AH224">
-        <v>1291</v>
+        <v>1322</v>
       </c>
       <c r="AI224">
-        <v>276380</v>
+        <v>276514</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados promedios 1965 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Agregados promedios 1965 a 2021 - Trimestral.xlsx
@@ -13743,16 +13743,16 @@
         <v>25923</v>
       </c>
       <c r="AF224">
-        <v>3440</v>
+        <v>3486</v>
       </c>
       <c r="AG224">
         <v>18665</v>
       </c>
       <c r="AH224">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="AI224">
-        <v>276514</v>
+        <v>276552</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados promedios 1965 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Agregados promedios 1965 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Serie</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI224"/>
+  <dimension ref="A1:AI225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13755,6 +13758,113 @@
         <v>276552</v>
       </c>
     </row>
+    <row r="225" spans="1:35">
+      <c r="A225" t="s">
+        <v>258</v>
+      </c>
+      <c r="B225">
+        <v>14999</v>
+      </c>
+      <c r="C225">
+        <v>45815</v>
+      </c>
+      <c r="D225">
+        <v>27285</v>
+      </c>
+      <c r="E225">
+        <v>18530</v>
+      </c>
+      <c r="F225">
+        <v>19304</v>
+      </c>
+      <c r="G225">
+        <v>80118</v>
+      </c>
+      <c r="H225">
+        <v>71159</v>
+      </c>
+      <c r="I225">
+        <v>44553</v>
+      </c>
+      <c r="J225">
+        <v>39438</v>
+      </c>
+      <c r="K225">
+        <v>5115</v>
+      </c>
+      <c r="L225">
+        <v>26031</v>
+      </c>
+      <c r="M225">
+        <v>575</v>
+      </c>
+      <c r="N225">
+        <v>10911</v>
+      </c>
+      <c r="O225">
+        <v>22959</v>
+      </c>
+      <c r="P225">
+        <v>1410</v>
+      </c>
+      <c r="Q225">
+        <v>13995</v>
+      </c>
+      <c r="R225">
+        <v>94</v>
+      </c>
+      <c r="S225">
+        <v>172469</v>
+      </c>
+      <c r="T225">
+        <v>27688</v>
+      </c>
+      <c r="U225">
+        <v>14600</v>
+      </c>
+      <c r="V225">
+        <v>14330</v>
+      </c>
+      <c r="W225">
+        <v>269</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>35943</v>
+      </c>
+      <c r="Z225">
+        <v>17354</v>
+      </c>
+      <c r="AA225">
+        <v>18589</v>
+      </c>
+      <c r="AB225">
+        <v>171</v>
+      </c>
+      <c r="AC225">
+        <v>256</v>
+      </c>
+      <c r="AD225">
+        <v>30870</v>
+      </c>
+      <c r="AE225">
+        <v>25539</v>
+      </c>
+      <c r="AF225">
+        <v>3716</v>
+      </c>
+      <c r="AG225">
+        <v>18395</v>
+      </c>
+      <c r="AH225">
+        <v>1376</v>
+      </c>
+      <c r="AI225">
+        <v>291480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
